--- a/Tiago/Exi_Map Data.xlsx
+++ b/Tiago/Exi_Map Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Desktop\VM Shared Folder\Github\DataVis\DataVis2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Desktop\VM Shared Folder\Github\DataVis\DataVis2021\Tiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EDA265-5E34-40AE-B24D-D9D5D140D02B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96CF317-DA59-4B67-AA9B-AB42EA567073}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="107">
   <si>
     <t>UK</t>
   </si>
@@ -343,6 +343,21 @@
   </si>
   <si>
     <t>Nr</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The growth and spread of these variants seems linked to the severity of lockdown measures. </t>
+  </si>
+  <si>
+    <t>After weeks of contained spread, the UK variant's worldwide presence exploded, increasing its presence sevenfold over the course of late December.</t>
+  </si>
+  <si>
+    <t>This is indicative of the increased travel and exposure during this time, but is also a consequence of the increeased transmissability of this strain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Brazillian and South African variants show similar growth to each other (roughly 3.5 new countries per week), despite the Brazillian strain spreading earlier. </t>
   </si>
 </sst>
 </file>
@@ -14690,7 +14705,7 @@
   <dimension ref="A1:L179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J170" sqref="J170"/>
     </sheetView>
   </sheetViews>
@@ -18387,16 +18402,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98A65E5-9EDC-4BB6-B2A3-1DFF833E97F5}">
-  <dimension ref="A1:L167"/>
+  <dimension ref="A1:AD167"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y37" sqref="Y37"/>
+      <selection pane="bottomLeft" activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -18434,7 +18449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18466,7 +18481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -18483,7 +18498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -18500,7 +18515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -18516,8 +18531,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="AD5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -18533,8 +18551,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="AD6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -18550,8 +18571,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="AD7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -18567,8 +18591,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="AD8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -18584,8 +18611,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="AD9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -18602,7 +18632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -18619,7 +18649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -18636,7 +18666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -18653,7 +18683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -18670,7 +18700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -18687,7 +18717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>

--- a/Tiago/Exi_Map Data.xlsx
+++ b/Tiago/Exi_Map Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Desktop\VM Shared Folder\Github\DataVis\DataVis2021\Tiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96CF317-DA59-4B67-AA9B-AB42EA567073}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A09625-F63B-47E9-A8FD-1A4CBDC691A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14705,8 +14705,8 @@
   <dimension ref="A1:L179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J170" sqref="J170"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18404,9 +18404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98A65E5-9EDC-4BB6-B2A3-1DFF833E97F5}">
   <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE14" sqref="AE14"/>
+      <selection pane="bottomLeft" activeCell="AD7" sqref="AD7:AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25155,7 +25155,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
